--- a/biology/Botanique/Camelina/Camelina.xlsx
+++ b/biology/Botanique/Camelina/Camelina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camelina est un genre de plantes herbacées de la famille des Brassicacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (15 mai 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (15 mai 2014) :
 Camelina alyssum
 Camelina anomala
 Camelina grandiflora
@@ -525,19 +539,19 @@
 Camelina rumelica
 Camelina sativa
 Camelina stiefelhagenii
-Selon GRIN            (15 mai 2014)[3] :
+Selon GRIN            (15 mai 2014) :
 Camelina alyssum (Mill.) Thell.
 Camelina hispida Boiss.
 Camelina laxa C. A. Mey.
 Camelina microcarpa Andrz. ex DC.
 Camelina rumelica Velen.
 Camelina sativa (L.) Crantz
-Selon ITIS      (15 mai 2014)[4] :
+Selon ITIS      (15 mai 2014) :
 Camelina alyssum (Mill.) Thell.
 Camelina microcarpa DC.
 Camelina rumelica Velen.
 Camelina sativa (L.) Crantz
-Selon NCBI  (15 mai 2014)[5] :
+Selon NCBI  (15 mai 2014) :
 Camelina alyssum
 Camelina hispida
 Camelina laxa
@@ -545,7 +559,7 @@
 Camelina rumelica
 sous-espèce Camelina rumelica subsp. transcaspica
 Camelina sativa
-Selon The Plant List            (15 mai 2014)[6] :
+Selon The Plant List            (15 mai 2014) :
 Camelina alyssum (Mill.) Thell.
 Camelina anomala Boiss. &amp; Hausskn.
 Camelina hispida Boiss.
@@ -554,9 +568,9 @@
 Camelina microcarpa Andrz. ex DC.
 Camelina rumelica Velen.
 Camelina sativa (L.) Crantz
-Selon Paleobiology Database                   (15 mai 2014)[7] :
+Selon Paleobiology Database                   (15 mai 2014) :
 genre Auchenia
-Selon Tropicos                                           (15 mai 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (15 mai 2014) (Attention liste brute contenant possiblement des synonymes) :
 Camelina albiflora N. Busch
 Camelina alyssum (Mill.) Thell.
 Camelina ambigua Besser ex Steud.
